--- a/data/pca/factorExposure/factorExposure_2016-02-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-02-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01418355629113635</v>
+        <v>-0.01678290956505266</v>
       </c>
       <c r="C2">
-        <v>0.05921292694159532</v>
+        <v>0.04484872055341714</v>
       </c>
       <c r="D2">
-        <v>-0.05511856365289512</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0824414879478431</v>
+      </c>
+      <c r="E2">
+        <v>0.1223559669217174</v>
+      </c>
+      <c r="F2">
+        <v>0.04000542627897333</v>
+      </c>
+      <c r="G2">
+        <v>-0.03383232607162677</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03733589027460276</v>
+        <v>-0.02312430467730061</v>
       </c>
       <c r="C3">
-        <v>0.123890285694047</v>
+        <v>0.06584980161531365</v>
       </c>
       <c r="D3">
-        <v>-0.06636317536920706</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07827915114191537</v>
+      </c>
+      <c r="E3">
+        <v>0.08543719020438358</v>
+      </c>
+      <c r="F3">
+        <v>-0.03896236532804109</v>
+      </c>
+      <c r="G3">
+        <v>-0.09713246597037016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06209063424017303</v>
+        <v>-0.06241898711484608</v>
       </c>
       <c r="C4">
-        <v>0.0637204267071525</v>
+        <v>0.0638548205244184</v>
       </c>
       <c r="D4">
-        <v>-0.04318418759885832</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08028375141123427</v>
+      </c>
+      <c r="E4">
+        <v>0.1054160685294286</v>
+      </c>
+      <c r="F4">
+        <v>-0.03875557186648784</v>
+      </c>
+      <c r="G4">
+        <v>0.04030759490840468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04359680207501875</v>
+        <v>-0.04096610083679228</v>
       </c>
       <c r="C6">
-        <v>0.03702730606505728</v>
+        <v>0.0280643077366633</v>
       </c>
       <c r="D6">
-        <v>-0.04074082850042025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.08214559816774379</v>
+      </c>
+      <c r="E6">
+        <v>0.09628818056445843</v>
+      </c>
+      <c r="F6">
+        <v>-0.02458951207368743</v>
+      </c>
+      <c r="G6">
+        <v>-0.001629956099104665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.03170446227525942</v>
+        <v>-0.02376098830120084</v>
       </c>
       <c r="C7">
-        <v>0.03471937392953385</v>
+        <v>0.03477184710283069</v>
       </c>
       <c r="D7">
-        <v>-0.01870358340197274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0636419409721314</v>
+      </c>
+      <c r="E7">
+        <v>0.0861119654903172</v>
+      </c>
+      <c r="F7">
+        <v>-0.01013005573834945</v>
+      </c>
+      <c r="G7">
+        <v>0.06438488919214681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.01054300522946451</v>
+        <v>-0.008876781689481809</v>
       </c>
       <c r="C8">
-        <v>0.04612460578660165</v>
+        <v>0.03775919694539506</v>
       </c>
       <c r="D8">
-        <v>-0.03583336439965818</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.05304754668510092</v>
+      </c>
+      <c r="E8">
+        <v>0.07030923740353012</v>
+      </c>
+      <c r="F8">
+        <v>-0.01682036151501487</v>
+      </c>
+      <c r="G8">
+        <v>-0.01332390427677443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.04185580589840616</v>
+        <v>-0.04456385515263095</v>
       </c>
       <c r="C9">
-        <v>0.04426934710464391</v>
+        <v>0.04996409106607051</v>
       </c>
       <c r="D9">
-        <v>-0.03827814460081849</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06842370720712218</v>
+      </c>
+      <c r="E9">
+        <v>0.08703968813662645</v>
+      </c>
+      <c r="F9">
+        <v>-0.01082313397951333</v>
+      </c>
+      <c r="G9">
+        <v>0.04645584527628845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07901419557896561</v>
+        <v>-0.1041490812064797</v>
       </c>
       <c r="C10">
-        <v>-0.1863987839611304</v>
+        <v>-0.2003265782835744</v>
       </c>
       <c r="D10">
-        <v>-0.01013222622026213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.005052614563655944</v>
+      </c>
+      <c r="E10">
+        <v>0.03929291661142036</v>
+      </c>
+      <c r="F10">
+        <v>-7.858082230844982e-05</v>
+      </c>
+      <c r="G10">
+        <v>0.03446674842494107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04570079879640582</v>
+        <v>-0.03890445486074288</v>
       </c>
       <c r="C11">
-        <v>0.05127364589429091</v>
+        <v>0.04791921937777914</v>
       </c>
       <c r="D11">
-        <v>-0.02813390431650838</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04424982153522466</v>
+      </c>
+      <c r="E11">
+        <v>0.0385356726593255</v>
+      </c>
+      <c r="F11">
+        <v>-0.01532444991495917</v>
+      </c>
+      <c r="G11">
+        <v>0.04076906742734926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04912862001901768</v>
+        <v>-0.04127897297707311</v>
       </c>
       <c r="C12">
-        <v>0.0462395310936398</v>
+        <v>0.04585782594205904</v>
       </c>
       <c r="D12">
-        <v>-0.007231092735788585</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.03707129317330903</v>
+      </c>
+      <c r="E12">
+        <v>0.04942053870131369</v>
+      </c>
+      <c r="F12">
+        <v>-0.007296678215700569</v>
+      </c>
+      <c r="G12">
+        <v>0.03585185299960288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01763947625592976</v>
+        <v>-0.01705649851745187</v>
       </c>
       <c r="C13">
-        <v>0.05421389045839021</v>
+        <v>0.04300142060597258</v>
       </c>
       <c r="D13">
-        <v>-0.02308012097162204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0755411815345607</v>
+      </c>
+      <c r="E13">
+        <v>0.1303589867563917</v>
+      </c>
+      <c r="F13">
+        <v>-0.02048702396004944</v>
+      </c>
+      <c r="G13">
+        <v>0.0498972873038149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01689267809794521</v>
+        <v>-0.009628595191848806</v>
       </c>
       <c r="C14">
-        <v>0.0301099762525503</v>
+        <v>0.02914115260426486</v>
       </c>
       <c r="D14">
-        <v>-0.01263256060344008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.04901455794518391</v>
+      </c>
+      <c r="E14">
+        <v>0.08144528624013588</v>
+      </c>
+      <c r="F14">
+        <v>0.01265023275127303</v>
+      </c>
+      <c r="G14">
+        <v>0.03826302947737657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0005506886154576359</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006478570182572782</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01195706273302799</v>
+      </c>
+      <c r="E15">
+        <v>0.01221539343489475</v>
+      </c>
+      <c r="F15">
+        <v>8.259904266563304e-05</v>
+      </c>
+      <c r="G15">
+        <v>-0.0005799643796169846</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04454934744842547</v>
+        <v>-0.03785676177012291</v>
       </c>
       <c r="C16">
-        <v>0.04786845056929528</v>
+        <v>0.04513818209517695</v>
       </c>
       <c r="D16">
-        <v>-0.01730601673720381</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0402394929666867</v>
+      </c>
+      <c r="E16">
+        <v>0.05271894015278676</v>
+      </c>
+      <c r="F16">
+        <v>0.003637187972930983</v>
+      </c>
+      <c r="G16">
+        <v>0.03251973332824175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02548908849883962</v>
+        <v>-0.01798048927805015</v>
       </c>
       <c r="C19">
-        <v>0.057782861578938</v>
+        <v>0.04320218017612804</v>
       </c>
       <c r="D19">
-        <v>-0.0862045207204056</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1036392793428527</v>
+      </c>
+      <c r="E19">
+        <v>0.1237571586717521</v>
+      </c>
+      <c r="F19">
+        <v>0.01433010118345321</v>
+      </c>
+      <c r="G19">
+        <v>-0.00497827193347107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02332262144930489</v>
+        <v>-0.01832170196958496</v>
       </c>
       <c r="C20">
-        <v>0.04880319374371973</v>
+        <v>0.04108125541201343</v>
       </c>
       <c r="D20">
-        <v>-0.02121710221930702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.05664741568077656</v>
+      </c>
+      <c r="E20">
+        <v>0.0979403919526708</v>
+      </c>
+      <c r="F20">
+        <v>-0.003213622180000183</v>
+      </c>
+      <c r="G20">
+        <v>0.02348082557995054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.02209593150870662</v>
+        <v>-0.01741779119529032</v>
       </c>
       <c r="C21">
-        <v>0.05621242374432872</v>
+        <v>0.04657012606346438</v>
       </c>
       <c r="D21">
-        <v>-0.03929593128099941</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.08434064967620632</v>
+      </c>
+      <c r="E21">
+        <v>0.1515038585162445</v>
+      </c>
+      <c r="F21">
+        <v>0.02042543140516531</v>
+      </c>
+      <c r="G21">
+        <v>0.06465327875109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0003951327967017653</v>
+        <v>-0.005367965420050658</v>
       </c>
       <c r="C22">
-        <v>0.01312886113260223</v>
+        <v>0.03005030025136143</v>
       </c>
       <c r="D22">
-        <v>-0.02836216866915496</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.06907847878558808</v>
+      </c>
+      <c r="E22">
+        <v>0.07544420795249331</v>
+      </c>
+      <c r="F22">
+        <v>-0.06731953487313672</v>
+      </c>
+      <c r="G22">
+        <v>-0.04070439649475354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.000402088904546584</v>
+        <v>-0.005487670336716523</v>
       </c>
       <c r="C23">
-        <v>0.01313087862579248</v>
+        <v>0.03010519365926019</v>
       </c>
       <c r="D23">
-        <v>-0.028316604572653</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.06840316943047266</v>
+      </c>
+      <c r="E23">
+        <v>0.07560941624820225</v>
+      </c>
+      <c r="F23">
+        <v>-0.06729812622935312</v>
+      </c>
+      <c r="G23">
+        <v>-0.039994927558646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.04133948513690455</v>
+        <v>-0.03888683262434166</v>
       </c>
       <c r="C24">
-        <v>0.04931176748699261</v>
+        <v>0.05304284964078449</v>
       </c>
       <c r="D24">
-        <v>-0.02117129255421971</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0415509739834821</v>
+      </c>
+      <c r="E24">
+        <v>0.05800128912880011</v>
+      </c>
+      <c r="F24">
+        <v>-0.0001642759395242274</v>
+      </c>
+      <c r="G24">
+        <v>0.04748475089446696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.05176583486652734</v>
+        <v>-0.04536868167237242</v>
       </c>
       <c r="C25">
-        <v>0.0542588385121523</v>
+        <v>0.0534586148207724</v>
       </c>
       <c r="D25">
-        <v>-0.01536391552466027</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.03798796647198731</v>
+      </c>
+      <c r="E25">
+        <v>0.05037846473475738</v>
+      </c>
+      <c r="F25">
+        <v>-0.01770788976197928</v>
+      </c>
+      <c r="G25">
+        <v>0.05032913910394019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02341069319693442</v>
+        <v>-0.01969275790330278</v>
       </c>
       <c r="C26">
-        <v>0.01429398152066569</v>
+        <v>0.01713014841185928</v>
       </c>
       <c r="D26">
-        <v>-0.0215456753186281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04349160108128671</v>
+      </c>
+      <c r="E26">
+        <v>0.06477948746963755</v>
+      </c>
+      <c r="F26">
+        <v>0.01316353325050081</v>
+      </c>
+      <c r="G26">
+        <v>0.01298745774472703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09838951032327896</v>
+        <v>-0.1424030079167596</v>
       </c>
       <c r="C28">
-        <v>-0.2586545996760884</v>
+        <v>-0.2591823858163517</v>
       </c>
       <c r="D28">
-        <v>0.001055078946142726</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02096606880721329</v>
+      </c>
+      <c r="E28">
+        <v>0.06398414732020684</v>
+      </c>
+      <c r="F28">
+        <v>-0.0007235990075056882</v>
+      </c>
+      <c r="G28">
+        <v>0.07000686309359663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01195499965728787</v>
+        <v>-0.0087339199610901</v>
       </c>
       <c r="C29">
-        <v>0.02642472162575983</v>
+        <v>0.02665166996841196</v>
       </c>
       <c r="D29">
-        <v>-0.004600693399617745</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.04142367188977626</v>
+      </c>
+      <c r="E29">
+        <v>0.07980159284890694</v>
+      </c>
+      <c r="F29">
+        <v>0.001978831760571493</v>
+      </c>
+      <c r="G29">
+        <v>0.04667435769651904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0443118649459515</v>
+        <v>-0.04497796138554496</v>
       </c>
       <c r="C30">
-        <v>0.04590941903239507</v>
+        <v>0.05466975645268622</v>
       </c>
       <c r="D30">
-        <v>-0.09829230081907751</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1282923293571802</v>
+      </c>
+      <c r="E30">
+        <v>0.1053561835425687</v>
+      </c>
+      <c r="F30">
+        <v>-0.002055145576346535</v>
+      </c>
+      <c r="G30">
+        <v>-0.0176630775762038</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06793286927570805</v>
+        <v>-0.06419424236910325</v>
       </c>
       <c r="C31">
-        <v>0.04752450005861926</v>
+        <v>0.0613283064997429</v>
       </c>
       <c r="D31">
-        <v>0.02334892145750167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.007942238914568293</v>
+      </c>
+      <c r="E31">
+        <v>0.08102769790198402</v>
+      </c>
+      <c r="F31">
+        <v>-0.04011452004109364</v>
+      </c>
+      <c r="G31">
+        <v>0.03553478802375901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-9.622093391737364e-06</v>
+        <v>-0.006844501314832985</v>
       </c>
       <c r="C32">
-        <v>0.03514926996879386</v>
+        <v>0.03261162442751363</v>
       </c>
       <c r="D32">
-        <v>-0.04176764212653999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.06020228395454295</v>
+      </c>
+      <c r="E32">
+        <v>0.1054007447604225</v>
+      </c>
+      <c r="F32">
+        <v>0.02928815628618346</v>
+      </c>
+      <c r="G32">
+        <v>0.06323864491000311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03917380547887423</v>
+        <v>-0.03192656163622232</v>
       </c>
       <c r="C33">
-        <v>0.05664957330650278</v>
+        <v>0.05139021786021414</v>
       </c>
       <c r="D33">
-        <v>-0.06303881074590355</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09740110240117478</v>
+      </c>
+      <c r="E33">
+        <v>0.1052317489893719</v>
+      </c>
+      <c r="F33">
+        <v>-0.01926841477539816</v>
+      </c>
+      <c r="G33">
+        <v>0.04035955633395042</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04552229349704373</v>
+        <v>-0.04064799990203669</v>
       </c>
       <c r="C34">
-        <v>0.06413063868686592</v>
+        <v>0.06259097433159219</v>
       </c>
       <c r="D34">
-        <v>-0.03357289313668423</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04678589622268108</v>
+      </c>
+      <c r="E34">
+        <v>0.03914669422329053</v>
+      </c>
+      <c r="F34">
+        <v>-0.005711909481067329</v>
+      </c>
+      <c r="G34">
+        <v>0.0535017583292107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-3.676469767284635e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0004352933965302625</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0002800958724808714</v>
+      </c>
+      <c r="E35">
+        <v>-0.0005659758608043468</v>
+      </c>
+      <c r="F35">
+        <v>0.0001973836804485826</v>
+      </c>
+      <c r="G35">
+        <v>0.0001601867831471366</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02308420338032121</v>
+        <v>-0.01900727829914399</v>
       </c>
       <c r="C36">
-        <v>0.01578435575829133</v>
+        <v>0.01411297401454516</v>
       </c>
       <c r="D36">
-        <v>-0.0133694198855609</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04461178482415656</v>
+      </c>
+      <c r="E36">
+        <v>0.07541644365713138</v>
+      </c>
+      <c r="F36">
+        <v>-0.003832578845043935</v>
+      </c>
+      <c r="G36">
+        <v>0.03443789873864803</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03331811465259629</v>
+        <v>-0.02498591142550794</v>
       </c>
       <c r="C38">
-        <v>0.03025165396643956</v>
+        <v>0.02459183443217156</v>
       </c>
       <c r="D38">
-        <v>0.002047147469530497</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.03791978854686923</v>
+      </c>
+      <c r="E38">
+        <v>0.06418604265085293</v>
+      </c>
+      <c r="F38">
+        <v>-0.00337297730102996</v>
+      </c>
+      <c r="G38">
+        <v>-0.009310906496055527</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.05369984719277904</v>
+        <v>-0.04623010965110018</v>
       </c>
       <c r="C39">
-        <v>0.05946911809666779</v>
+        <v>0.06173600033360312</v>
       </c>
       <c r="D39">
-        <v>-0.04033281938467901</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07273007092002248</v>
+      </c>
+      <c r="E39">
+        <v>0.06400946013419846</v>
+      </c>
+      <c r="F39">
+        <v>0.01761385312598557</v>
+      </c>
+      <c r="G39">
+        <v>0.03301044101323723</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01593512536246548</v>
+        <v>-0.01728225185642883</v>
       </c>
       <c r="C40">
-        <v>0.05773138197813759</v>
+        <v>0.04204200757116104</v>
       </c>
       <c r="D40">
-        <v>-0.01467510276730895</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04988079986508727</v>
+      </c>
+      <c r="E40">
+        <v>0.1161981391236013</v>
+      </c>
+      <c r="F40">
+        <v>-0.03312486717258156</v>
+      </c>
+      <c r="G40">
+        <v>0.01629033291628943</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02739638922861045</v>
+        <v>-0.02226532545033888</v>
       </c>
       <c r="C41">
-        <v>0.01239487740254464</v>
+        <v>0.01037210443528193</v>
       </c>
       <c r="D41">
-        <v>-0.01056759477293233</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02941493000092239</v>
+      </c>
+      <c r="E41">
+        <v>0.07538948349489515</v>
+      </c>
+      <c r="F41">
+        <v>-0.001406426545304774</v>
+      </c>
+      <c r="G41">
+        <v>0.02492966823630498</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04962515162093871</v>
+        <v>-0.03404999323118029</v>
       </c>
       <c r="C43">
-        <v>0.03383840208338447</v>
+        <v>0.02449689116891534</v>
       </c>
       <c r="D43">
-        <v>-0.02626516462770991</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.05863030327105551</v>
+      </c>
+      <c r="E43">
+        <v>0.08508648751641783</v>
+      </c>
+      <c r="F43">
+        <v>-0.02368124342273152</v>
+      </c>
+      <c r="G43">
+        <v>0.03950945675795028</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02015547016528507</v>
+        <v>-0.02089742394642372</v>
       </c>
       <c r="C44">
-        <v>0.06524603088020417</v>
+        <v>0.04725085907764506</v>
       </c>
       <c r="D44">
-        <v>-0.008411307460587535</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05297550868108757</v>
+      </c>
+      <c r="E44">
+        <v>0.1075888294907406</v>
+      </c>
+      <c r="F44">
+        <v>0.01426251008150858</v>
+      </c>
+      <c r="G44">
+        <v>0.02895390888842173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0171925960706278</v>
+        <v>-0.01528185293889954</v>
       </c>
       <c r="C46">
-        <v>0.02481214621346197</v>
+        <v>0.02926456105739535</v>
       </c>
       <c r="D46">
-        <v>-0.001276364322369925</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03723502163327658</v>
+      </c>
+      <c r="E46">
+        <v>0.08842360644141682</v>
+      </c>
+      <c r="F46">
+        <v>0.01709198659974475</v>
+      </c>
+      <c r="G46">
+        <v>0.06422814434941818</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09627435429475528</v>
+        <v>-0.0963615439582491</v>
       </c>
       <c r="C47">
-        <v>0.06921809761099972</v>
+        <v>0.08046073213588231</v>
       </c>
       <c r="D47">
-        <v>0.03910512168948996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.008789395011960643</v>
+      </c>
+      <c r="E47">
+        <v>0.06739803721817109</v>
+      </c>
+      <c r="F47">
+        <v>-0.02449634995392118</v>
+      </c>
+      <c r="G47">
+        <v>0.06482727330039731</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02549936240041745</v>
+        <v>-0.02106730310944726</v>
       </c>
       <c r="C48">
-        <v>0.01086927475878871</v>
+        <v>0.01522726528823612</v>
       </c>
       <c r="D48">
-        <v>0.007019887268627991</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.032427215101876</v>
+      </c>
+      <c r="E48">
+        <v>0.09092007142456963</v>
+      </c>
+      <c r="F48">
+        <v>0.003144164372953124</v>
+      </c>
+      <c r="G48">
+        <v>0.04459917251623062</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08650596132680803</v>
+        <v>-0.0741893716702389</v>
       </c>
       <c r="C50">
-        <v>0.08826168309585823</v>
+        <v>0.07613995407890289</v>
       </c>
       <c r="D50">
-        <v>0.03788471177810127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.009767664013228178</v>
+      </c>
+      <c r="E50">
+        <v>0.08457833942994557</v>
+      </c>
+      <c r="F50">
+        <v>-0.0545928039154053</v>
+      </c>
+      <c r="G50">
+        <v>0.01765240616593774</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01875697786856943</v>
+        <v>-0.01417942394523725</v>
       </c>
       <c r="C51">
-        <v>0.04774354472864038</v>
+        <v>0.02903196599479233</v>
       </c>
       <c r="D51">
-        <v>-0.06593538883636144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.07864934356513185</v>
+      </c>
+      <c r="E51">
+        <v>0.07267090638797617</v>
+      </c>
+      <c r="F51">
+        <v>0.01260650786669106</v>
+      </c>
+      <c r="G51">
+        <v>0.01160614638386441</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08863260909864122</v>
+        <v>-0.1015855297407503</v>
       </c>
       <c r="C53">
-        <v>0.08068889805645002</v>
+        <v>0.08816219908996627</v>
       </c>
       <c r="D53">
-        <v>0.06206983846640609</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04739540030760826</v>
+      </c>
+      <c r="E53">
+        <v>0.08492523551239567</v>
+      </c>
+      <c r="F53">
+        <v>-0.01969719863087228</v>
+      </c>
+      <c r="G53">
+        <v>0.07742042796762527</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.04212719394134638</v>
+        <v>-0.03293131055538825</v>
       </c>
       <c r="C54">
-        <v>0.03252825228519435</v>
+        <v>0.03149347515314073</v>
       </c>
       <c r="D54">
-        <v>-0.02003182942096121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.05070706493899804</v>
+      </c>
+      <c r="E54">
+        <v>0.08192889603704458</v>
+      </c>
+      <c r="F54">
+        <v>0.00548198287359089</v>
+      </c>
+      <c r="G54">
+        <v>0.04376046632898987</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08536950030582001</v>
+        <v>-0.09332510841479003</v>
       </c>
       <c r="C55">
-        <v>0.05455129396746161</v>
+        <v>0.06787684539645293</v>
       </c>
       <c r="D55">
-        <v>0.06071861945610538</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04755597908961549</v>
+      </c>
+      <c r="E55">
+        <v>0.05465732925207377</v>
+      </c>
+      <c r="F55">
+        <v>-0.0303758683951271</v>
+      </c>
+      <c r="G55">
+        <v>0.0372449542319262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1485592385591004</v>
+        <v>-0.1530880717941863</v>
       </c>
       <c r="C56">
-        <v>0.08595947962303063</v>
+        <v>0.1040812862795711</v>
       </c>
       <c r="D56">
-        <v>0.06658560757117164</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0562576130752867</v>
+      </c>
+      <c r="E56">
+        <v>0.04695989129141741</v>
+      </c>
+      <c r="F56">
+        <v>-0.02834348556820226</v>
+      </c>
+      <c r="G56">
+        <v>0.04718996810769865</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05139801294586932</v>
+        <v>-0.03978567779485308</v>
       </c>
       <c r="C58">
-        <v>0.007626924322521828</v>
+        <v>0.01635451766126518</v>
       </c>
       <c r="D58">
-        <v>-0.2201837635379852</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2826598634562122</v>
+      </c>
+      <c r="E58">
+        <v>0.3497942566384648</v>
+      </c>
+      <c r="F58">
+        <v>-0.1478807460451137</v>
+      </c>
+      <c r="G58">
+        <v>-0.5164588500308286</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.127080738429814</v>
+        <v>-0.1443756898071283</v>
       </c>
       <c r="C59">
-        <v>-0.2054326852993415</v>
+        <v>-0.1929321324391703</v>
       </c>
       <c r="D59">
-        <v>-0.04160122402710683</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03873345784692362</v>
+      </c>
+      <c r="E59">
+        <v>0.0296251067141052</v>
+      </c>
+      <c r="F59">
+        <v>0.02756930952528259</v>
+      </c>
+      <c r="G59">
+        <v>-0.01464569207854584</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2861699744758783</v>
+        <v>-0.2616889942252788</v>
       </c>
       <c r="C60">
-        <v>0.1122979432829832</v>
+        <v>0.09873980674671759</v>
       </c>
       <c r="D60">
-        <v>-0.2370280348500675</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2230076643026202</v>
+      </c>
+      <c r="E60">
+        <v>-0.2718574068506586</v>
+      </c>
+      <c r="F60">
+        <v>-0.1147512315275904</v>
+      </c>
+      <c r="G60">
+        <v>-0.01313557516948525</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.05233960680993442</v>
+        <v>-0.04741372240852448</v>
       </c>
       <c r="C61">
-        <v>0.05353540454019549</v>
+        <v>0.05533635035707111</v>
       </c>
       <c r="D61">
-        <v>-0.03849871348284778</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.06064048701866157</v>
+      </c>
+      <c r="E61">
+        <v>0.06353221314609839</v>
+      </c>
+      <c r="F61">
+        <v>-0.002084967330452585</v>
+      </c>
+      <c r="G61">
+        <v>0.05005851745041286</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01907336928921483</v>
+        <v>-0.01870805609303097</v>
       </c>
       <c r="C63">
-        <v>0.03292405414292088</v>
+        <v>0.03038915374154685</v>
       </c>
       <c r="D63">
-        <v>0.003741375316764029</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.03707277010959985</v>
+      </c>
+      <c r="E63">
+        <v>0.0830608279024586</v>
+      </c>
+      <c r="F63">
+        <v>-0.02253526658437754</v>
+      </c>
+      <c r="G63">
+        <v>0.02143477739746509</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05490107767666102</v>
+        <v>-0.05880974281960626</v>
       </c>
       <c r="C64">
-        <v>0.04648881890360811</v>
+        <v>0.06022077184739512</v>
       </c>
       <c r="D64">
-        <v>-0.0191933697420856</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02508416886022045</v>
+      </c>
+      <c r="E64">
+        <v>0.05849720304249521</v>
+      </c>
+      <c r="F64">
+        <v>0.01413801852867655</v>
+      </c>
+      <c r="G64">
+        <v>0.07655478456060558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07618376566258707</v>
+        <v>-0.06342352014579447</v>
       </c>
       <c r="C65">
-        <v>0.02566385474409276</v>
+        <v>0.02499619588741527</v>
       </c>
       <c r="D65">
-        <v>-0.06263442474280909</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.09944527392524827</v>
+      </c>
+      <c r="E65">
+        <v>0.05976624631947767</v>
+      </c>
+      <c r="F65">
+        <v>-0.02406639675357213</v>
+      </c>
+      <c r="G65">
+        <v>-0.0376768828457922</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06467873633313798</v>
+        <v>-0.05699255954454785</v>
       </c>
       <c r="C66">
-        <v>0.07712790463572056</v>
+        <v>0.0759875486051242</v>
       </c>
       <c r="D66">
-        <v>-0.05933132899881013</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09555168252779117</v>
+      </c>
+      <c r="E66">
+        <v>0.07696821903070356</v>
+      </c>
+      <c r="F66">
+        <v>-0.002011436174205928</v>
+      </c>
+      <c r="G66">
+        <v>0.02719737681651949</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05359933743437484</v>
+        <v>-0.04424268547006611</v>
       </c>
       <c r="C67">
-        <v>0.02997126840685264</v>
+        <v>0.02779937052091985</v>
       </c>
       <c r="D67">
-        <v>0.01334991483812983</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01506588072987263</v>
+      </c>
+      <c r="E67">
+        <v>0.03383968140774863</v>
+      </c>
+      <c r="F67">
+        <v>-0.004207622999776587</v>
+      </c>
+      <c r="G67">
+        <v>-0.002298986867816448</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1323962593822424</v>
+        <v>-0.1520061165748811</v>
       </c>
       <c r="C68">
-        <v>-0.2842682390463036</v>
+        <v>-0.2424566500040861</v>
       </c>
       <c r="D68">
-        <v>0.003951744521811872</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005039706696601288</v>
+      </c>
+      <c r="E68">
+        <v>0.0519317762892375</v>
+      </c>
+      <c r="F68">
+        <v>-0.01049806356321798</v>
+      </c>
+      <c r="G68">
+        <v>-0.01041781775901258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0967838035188507</v>
+        <v>-0.09158004270688762</v>
       </c>
       <c r="C69">
-        <v>0.07719391191897197</v>
+        <v>0.0904488792104173</v>
       </c>
       <c r="D69">
-        <v>0.03604530363752253</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.003129461070258441</v>
+      </c>
+      <c r="E69">
+        <v>0.07083484996001263</v>
+      </c>
+      <c r="F69">
+        <v>-0.0002373941821720348</v>
+      </c>
+      <c r="G69">
+        <v>0.0680636072785001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1185964751668693</v>
+        <v>-0.145129512504397</v>
       </c>
       <c r="C71">
-        <v>-0.2547604482096755</v>
+        <v>-0.2406183615966537</v>
       </c>
       <c r="D71">
-        <v>-0.02321227616420146</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01593478599825856</v>
+      </c>
+      <c r="E71">
+        <v>0.06683437654366584</v>
+      </c>
+      <c r="F71">
+        <v>-0.02831967553377802</v>
+      </c>
+      <c r="G71">
+        <v>0.04869669243712262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1030867978039151</v>
+        <v>-0.1073944279991706</v>
       </c>
       <c r="C72">
-        <v>0.05189467154917681</v>
+        <v>0.05156315177170651</v>
       </c>
       <c r="D72">
-        <v>-0.0275522176775817</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.05893829659193169</v>
+      </c>
+      <c r="E72">
+        <v>0.03792296868829136</v>
+      </c>
+      <c r="F72">
+        <v>-0.03790361433963665</v>
+      </c>
+      <c r="G72">
+        <v>0.05955177431246252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.356404340698812</v>
+        <v>-0.3093771558684782</v>
       </c>
       <c r="C73">
-        <v>0.06966690787197839</v>
+        <v>0.07102202757463176</v>
       </c>
       <c r="D73">
-        <v>-0.5273930505308737</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4483854687270373</v>
+      </c>
+      <c r="E73">
+        <v>-0.5425254949164121</v>
+      </c>
+      <c r="F73">
+        <v>-0.1602037818678962</v>
+      </c>
+      <c r="G73">
+        <v>-0.04749030405917844</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1055549236567865</v>
+        <v>-0.1106993953752908</v>
       </c>
       <c r="C74">
-        <v>0.08943548239917956</v>
+        <v>0.08921236331948026</v>
       </c>
       <c r="D74">
-        <v>0.04553008783422159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03954179354981213</v>
+      </c>
+      <c r="E74">
+        <v>0.06496851010401768</v>
+      </c>
+      <c r="F74">
+        <v>-0.03704309307164267</v>
+      </c>
+      <c r="G74">
+        <v>0.03148570544737866</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2502529611642234</v>
+        <v>-0.2550056216060176</v>
       </c>
       <c r="C75">
-        <v>0.09212686434548585</v>
+        <v>0.1232917178970288</v>
       </c>
       <c r="D75">
-        <v>0.1671020994110061</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.161067585035827</v>
+      </c>
+      <c r="E75">
+        <v>0.02034706064340722</v>
+      </c>
+      <c r="F75">
+        <v>-0.01554280195053501</v>
+      </c>
+      <c r="G75">
+        <v>0.02318922801372539</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1177465530292317</v>
+        <v>-0.130932188566912</v>
       </c>
       <c r="C76">
-        <v>0.07882041451590674</v>
+        <v>0.08988360495900785</v>
       </c>
       <c r="D76">
-        <v>0.08652661550251357</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07200272079794912</v>
+      </c>
+      <c r="E76">
+        <v>0.09321444886659561</v>
+      </c>
+      <c r="F76">
+        <v>-0.008355844637247931</v>
+      </c>
+      <c r="G76">
+        <v>0.0456905792917544</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08477142401620577</v>
+        <v>-0.06857709409075941</v>
       </c>
       <c r="C77">
-        <v>0.03622575435209916</v>
+        <v>0.05908382601399704</v>
       </c>
       <c r="D77">
-        <v>-0.06381102890530586</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.0898391652208357</v>
+      </c>
+      <c r="E77">
+        <v>0.1197588385694482</v>
+      </c>
+      <c r="F77">
+        <v>0.213509448809916</v>
+      </c>
+      <c r="G77">
+        <v>-0.1115357169719017</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04671572402440999</v>
+        <v>-0.04791471288259158</v>
       </c>
       <c r="C78">
-        <v>0.04595081288969181</v>
+        <v>0.05464422554271604</v>
       </c>
       <c r="D78">
-        <v>-0.05733087223519136</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08923393062632567</v>
+      </c>
+      <c r="E78">
+        <v>0.07928503940721031</v>
+      </c>
+      <c r="F78">
+        <v>-0.002720430037895746</v>
+      </c>
+      <c r="G78">
+        <v>0.04034082270950849</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.001355795862926222</v>
+        <v>-0.03728429100064451</v>
       </c>
       <c r="C79">
-        <v>0.0001053809389404935</v>
+        <v>0.05186774193423273</v>
       </c>
       <c r="D79">
-        <v>-0.006329178206935706</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08785217837184475</v>
+      </c>
+      <c r="E79">
+        <v>0.08560185432105358</v>
+      </c>
+      <c r="F79">
+        <v>-0.03833933849500586</v>
+      </c>
+      <c r="G79">
+        <v>0.2632576462627892</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03850095148383192</v>
+        <v>-0.0312484095413665</v>
       </c>
       <c r="C80">
-        <v>0.04384827995677031</v>
+        <v>0.04629551845706985</v>
       </c>
       <c r="D80">
-        <v>-0.03437625608707366</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04293114536674773</v>
+      </c>
+      <c r="E80">
+        <v>0.01730198814620751</v>
+      </c>
+      <c r="F80">
+        <v>0.05190357510709304</v>
+      </c>
+      <c r="G80">
+        <v>-0.008488835720110773</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1489380940844207</v>
+        <v>-0.1441904264971995</v>
       </c>
       <c r="C81">
-        <v>0.06951878789099421</v>
+        <v>0.09063588760123835</v>
       </c>
       <c r="D81">
-        <v>0.1404577027678708</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.125468713952785</v>
+      </c>
+      <c r="E81">
+        <v>0.06607131532889118</v>
+      </c>
+      <c r="F81">
+        <v>-0.007043064520612263</v>
+      </c>
+      <c r="G81">
+        <v>0.03415732766715663</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2237997766835919</v>
+        <v>-0.2417025195899613</v>
       </c>
       <c r="C82">
-        <v>0.09994593111541887</v>
+        <v>0.1659110907829948</v>
       </c>
       <c r="D82">
-        <v>0.2009686678053733</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2478978097991337</v>
+      </c>
+      <c r="E82">
+        <v>-0.0650882516850823</v>
+      </c>
+      <c r="F82">
+        <v>0.0469028132268035</v>
+      </c>
+      <c r="G82">
+        <v>0.3667232056777351</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04377082480272913</v>
+        <v>-0.02956504195576317</v>
       </c>
       <c r="C83">
-        <v>0.03844559194233624</v>
+        <v>0.04747219189041947</v>
       </c>
       <c r="D83">
-        <v>-0.05167777196509295</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0371369168778685</v>
+      </c>
+      <c r="E83">
+        <v>0.02758967908723733</v>
+      </c>
+      <c r="F83">
+        <v>0.02984262791681647</v>
+      </c>
+      <c r="G83">
+        <v>0.004973224923113877</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-1.960908585967003e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.002191133220424824</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0003963313356053358</v>
+      </c>
+      <c r="E84">
+        <v>0.009240731797246816</v>
+      </c>
+      <c r="F84">
+        <v>-0.00239774543159589</v>
+      </c>
+      <c r="G84">
+        <v>-0.009017598026354203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1975114570259267</v>
+        <v>-0.1872093424382284</v>
       </c>
       <c r="C85">
-        <v>0.0967249956123942</v>
+        <v>0.1110061933913397</v>
       </c>
       <c r="D85">
-        <v>0.1558243885207921</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1311703656884274</v>
+      </c>
+      <c r="E85">
+        <v>-0.00121474353571323</v>
+      </c>
+      <c r="F85">
+        <v>-0.0535179872717949</v>
+      </c>
+      <c r="G85">
+        <v>0.06824299567559515</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01365136767626479</v>
+        <v>-0.01702178758006447</v>
       </c>
       <c r="C86">
-        <v>0.02803472412087948</v>
+        <v>0.0168941330130217</v>
       </c>
       <c r="D86">
-        <v>-0.06191173179191363</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.09151564837766099</v>
+      </c>
+      <c r="E86">
+        <v>0.08812158345536591</v>
+      </c>
+      <c r="F86">
+        <v>0.02082525147444232</v>
+      </c>
+      <c r="G86">
+        <v>0.05596187110438944</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03408572531371135</v>
+        <v>-0.0335927837315376</v>
       </c>
       <c r="C87">
-        <v>-0.001178914819135534</v>
+        <v>0.01356006225293565</v>
       </c>
       <c r="D87">
-        <v>-0.08006280015973685</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1073122701643897</v>
+      </c>
+      <c r="E87">
+        <v>0.1350626189236888</v>
+      </c>
+      <c r="F87">
+        <v>0.05091549517707665</v>
+      </c>
+      <c r="G87">
+        <v>-0.03307503424942172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1148198315783285</v>
+        <v>-0.09688795397840967</v>
       </c>
       <c r="C88">
-        <v>0.08818269713415194</v>
+        <v>0.0696499898580271</v>
       </c>
       <c r="D88">
-        <v>0.005934727048311432</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02482989036261538</v>
+      </c>
+      <c r="E88">
+        <v>0.04091775181483674</v>
+      </c>
+      <c r="F88">
+        <v>0.01494090543220412</v>
+      </c>
+      <c r="G88">
+        <v>0.04523857228818774</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1895699734256631</v>
+        <v>-0.2206730635890872</v>
       </c>
       <c r="C89">
-        <v>-0.3753797353308053</v>
+        <v>-0.3806877159707555</v>
       </c>
       <c r="D89">
-        <v>0.02197987823426888</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.004339594694380345</v>
+      </c>
+      <c r="E89">
+        <v>0.07412502067886308</v>
+      </c>
+      <c r="F89">
+        <v>0.069462960822939</v>
+      </c>
+      <c r="G89">
+        <v>0.02106283395282744</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1801228946249296</v>
+        <v>-0.2003655059104514</v>
       </c>
       <c r="C90">
-        <v>-0.3329065243472879</v>
+        <v>-0.3093643758136259</v>
       </c>
       <c r="D90">
-        <v>0.02246013775274687</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004996292908477152</v>
+      </c>
+      <c r="E90">
+        <v>0.05841897903939942</v>
+      </c>
+      <c r="F90">
+        <v>0.0003746314494219625</v>
+      </c>
+      <c r="G90">
+        <v>-0.01167083550373654</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1935569543911101</v>
+        <v>-0.188669901274347</v>
       </c>
       <c r="C91">
-        <v>0.1254658561374065</v>
+        <v>0.1423428943275123</v>
       </c>
       <c r="D91">
-        <v>0.1484578927287573</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1296197338427115</v>
+      </c>
+      <c r="E91">
+        <v>0.05153895501185169</v>
+      </c>
+      <c r="F91">
+        <v>-0.005894099191343611</v>
+      </c>
+      <c r="G91">
+        <v>0.03308527337220902</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1623259015022327</v>
+        <v>-0.1805939626410039</v>
       </c>
       <c r="C92">
-        <v>-0.2885871618971115</v>
+        <v>-0.2956317564573884</v>
       </c>
       <c r="D92">
-        <v>0.01801854044225911</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.006247116555496061</v>
+      </c>
+      <c r="E92">
+        <v>0.08598885410113917</v>
+      </c>
+      <c r="F92">
+        <v>0.02756007752319145</v>
+      </c>
+      <c r="G92">
+        <v>0.03269254623520049</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1947784294396364</v>
+        <v>-0.2152995812663451</v>
       </c>
       <c r="C93">
-        <v>-0.3433394430429464</v>
+        <v>-0.3202613169554188</v>
       </c>
       <c r="D93">
-        <v>0.03378516901163093</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01630517695513045</v>
+      </c>
+      <c r="E93">
+        <v>0.03485062591949928</v>
+      </c>
+      <c r="F93">
+        <v>-0.02150789741110985</v>
+      </c>
+      <c r="G93">
+        <v>0.03724657372149547</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3581570241098313</v>
+        <v>-0.3487424302067583</v>
       </c>
       <c r="C94">
-        <v>0.1257112549394095</v>
+        <v>0.1766359807275433</v>
       </c>
       <c r="D94">
-        <v>0.4800160433728714</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4407981873698786</v>
+      </c>
+      <c r="E94">
+        <v>-0.05109842389331373</v>
+      </c>
+      <c r="F94">
+        <v>0.1078393200672745</v>
+      </c>
+      <c r="G94">
+        <v>-0.6161613895480565</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1113472072059242</v>
+        <v>-0.08250065445892323</v>
       </c>
       <c r="C95">
-        <v>0.04299330589459199</v>
+        <v>0.05567195311770903</v>
       </c>
       <c r="D95">
-        <v>-0.2856793246627476</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.2167650582453991</v>
+      </c>
+      <c r="E95">
+        <v>-0.08902088629205063</v>
+      </c>
+      <c r="F95">
+        <v>0.9014648857061158</v>
+      </c>
+      <c r="G95">
+        <v>0.00786162827031596</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1867069355191339</v>
+        <v>-0.1838319548636914</v>
       </c>
       <c r="C98">
-        <v>0.03429110343079939</v>
+        <v>0.04968675156012773</v>
       </c>
       <c r="D98">
-        <v>-0.2276744256874113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2066826238552593</v>
+      </c>
+      <c r="E98">
+        <v>-0.1846314258676014</v>
+      </c>
+      <c r="F98">
+        <v>-0.122347208491893</v>
+      </c>
+      <c r="G98">
+        <v>0.01852399659775329</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.0118062221108325</v>
+        <v>-0.008809978324476928</v>
       </c>
       <c r="C101">
-        <v>0.02590784097338815</v>
+        <v>0.02584305860520984</v>
       </c>
       <c r="D101">
-        <v>-0.004608706584759822</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.04133363338506669</v>
+      </c>
+      <c r="E101">
+        <v>0.08053690325963912</v>
+      </c>
+      <c r="F101">
+        <v>0.002924301741733224</v>
+      </c>
+      <c r="G101">
+        <v>0.04713922169423667</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1187209854826695</v>
+        <v>-0.1214037670133188</v>
       </c>
       <c r="C102">
-        <v>0.06491369397122689</v>
+        <v>0.09893858065123044</v>
       </c>
       <c r="D102">
-        <v>0.06067818572882999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06236774484778787</v>
+      </c>
+      <c r="E102">
+        <v>-0.001225539257857352</v>
+      </c>
+      <c r="F102">
+        <v>0.02816933175718705</v>
+      </c>
+      <c r="G102">
+        <v>0.05416251085477378</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
